--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signal.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signal.xlsx
@@ -64,15 +64,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-ChangeConfigxml(Configuration/Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t>Signal Visible</t>
   </si>
   <si>
@@ -804,6 +795,15 @@
   </si>
   <si>
     <t>Battery and Singal both visible</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1357,16 +1357,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1384,16 +1384,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1411,16 +1411,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1438,16 +1438,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1465,16 +1465,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1492,16 +1492,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1519,16 +1519,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1546,16 +1546,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1573,16 +1573,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1600,16 +1600,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1627,16 +1627,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1654,16 +1654,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1681,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1708,16 +1708,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1735,16 +1735,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1762,16 +1762,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1789,16 +1789,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1816,16 +1816,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1843,16 +1843,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1870,16 +1870,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1897,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1924,16 +1924,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signal.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signal.xlsx
@@ -57,10 +57,6 @@
     <t>Connect Device with WIFI</t>
   </si>
   <si>
-    <t>Battery
-  Indicator-JS-4.0</t>
-  </si>
-  <si>
     <t>Change Start page</t>
   </si>
   <si>
@@ -634,17 +630,26 @@
     <t>Signalevent</t>
   </si>
   <si>
+    <t>Signalevent with no WLAN</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(PB_signal_test_link);
 validate2;
-SelectTestToRun(VT056_1167_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-TakeScreenshot(VT056_1167);
+SelectTestToRun(VT056_1168_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
 validate3;
+wifi_Mode(OFF);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(2);
-validate4;</t>
+validate4;
+wifi_Mode(ON);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+wait(3)</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -656,10 +661,6 @@
 validate_PageTitle=PB Signal Test
 };
 validate3
-{
-validate_Screenshot=VT056_1167
-};
-validate4
 {
 validate_Result=Signal:
 validate_Result=ESSID:"ard"
@@ -673,40 +674,101 @@
 validate_Result=SubnetMask: 255.255.
 validate_Result=Wins:
 };
-</t>
-  </si>
-  <si>
-    <t>Signalevent with no WLAN</t>
+validate4
+{
+validate_Result=Signal: 0
+validate_Result=ESSID:
+validate_Result=MAC: 00:00:00:00:00:00
+validate_Result=AdapterName:
+validate_Result=DHCPServer:
+validate_Result=DHCPStatic:
+validate_Result=Gateway:
+validate_Result=IPAddress:
+validate_Result=RSSI: 0
+validate_Result=SubnetMask:
+validate_Result=Wins:
+};
+</t>
+  </si>
+  <si>
+    <t>Signalevent with URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB Signal Test
+};
+validate3
+{
+validate_Text_Exists=Successfully navigated
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(PB_signal_test_link);
+validate2;
+SelectTestToRun(VT056_1169_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+validate3;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(PB_signal_test_link);
+validate2;
+SelectTestToRun(VT056_1396_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+TakeScreenshot(VT056_1396);
+validate3;
+wait(2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB Signal Test
+};
+validate3
+{
+validate_Screenshot=VT056_1396
+};
+</t>
+  </si>
+  <si>
+    <t>Battery and Singal both visible</t>
   </si>
   <si>
     <t>wait(3);
-validate1;
-link_Click(PB_signal_test_link);
-validate2;
-SelectTestToRun(VT056_1168_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-wifi_Mode(OFF);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-validate4;
-wifi_Mode(ON);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-wait(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB Signal Test
-};
-validate3
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB Signal Test
+};
+validate4
 {
 validate_Result=Signal:
 validate_Result=ESSID:"ard"
@@ -720,90 +782,20 @@
 validate_Result=SubnetMask: 255.255.
 validate_Result=Wins:
 };
-validate4
-{
-validate_Result=Signal: 0
-validate_Result=ESSID:
-validate_Result=MAC: 00:00:00:00:00:00
-validate_Result=AdapterName:
-validate_Result=DHCPServer:
-validate_Result=DHCPStatic:
-validate_Result=Gateway:
-validate_Result=IPAddress:
-validate_Result=RSSI: 0
-validate_Result=SubnetMask:
-validate_Result=Wins:
-};
-</t>
-  </si>
-  <si>
-    <t>Signalevent with URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB Signal Test
-};
-validate3
-{
-validate_Text_Exists=Successfully navigated
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(PB_signal_test_link);
-validate2;
-SelectTestToRun(VT056_1169_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(PB_signal_test_link);
-validate2;
-SelectTestToRun(VT056_1396_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-TakeScreenshot(VT056_1396);
-validate3;
-wait(2);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB Signal Test
-};
-validate3
-{
-validate_Screenshot=VT056_1396
-};
-</t>
-  </si>
-  <si>
-    <t>Battery and Singal both visible</t>
+</t>
   </si>
   <si>
     <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-ChangeConfigxml(Configuration/Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
-PushConfigxml;</t>
+validate1;
+link_Click(PB_signal_test_link);
+validate2;
+SelectTestToRun(VT056_1167_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+validate4;</t>
+  </si>
+  <si>
+    <t>PB-Signal</t>
   </si>
 </sst>
 </file>
@@ -1324,19 +1316,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1357,16 +1349,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1384,16 +1376,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1411,16 +1403,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1438,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1465,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1492,16 +1484,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1519,16 +1511,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1546,16 +1538,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1573,16 +1565,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1600,16 +1592,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1627,16 +1619,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1654,16 +1646,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1681,16 +1673,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1708,16 +1700,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1735,16 +1727,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1762,16 +1754,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1789,16 +1781,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1816,22 +1808,22 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="304.5" thickBot="1">
+    <row r="21" spans="1:11" ht="259.5" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1843,16 +1835,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1870,16 +1862,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1897,16 +1889,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1924,16 +1916,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
